--- a/辅助总表/战斗配置辅助表/深渊战斗配置辅助表.xlsx
+++ b/辅助总表/战斗配置辅助表/深渊战斗配置辅助表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="怪物属性偏向" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="514">
   <si>
     <t>ID</t>
   </si>
@@ -1305,42 +1305,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fstage06</t>
-  </si>
-  <si>
-    <t>5.plist</t>
-  </si>
-  <si>
-    <t>fstage07</t>
-  </si>
-  <si>
-    <t>6.plist</t>
-  </si>
-  <si>
-    <t>fstage08</t>
-  </si>
-  <si>
-    <t>7.plist</t>
-  </si>
-  <si>
-    <t>fstage09</t>
-  </si>
-  <si>
-    <t>8.plist</t>
-  </si>
-  <si>
-    <t>fstage10</t>
-  </si>
-  <si>
-    <t>9.plist</t>
-  </si>
-  <si>
-    <t>fstage11</t>
-  </si>
-  <si>
-    <t>10.plist</t>
-  </si>
-  <si>
     <t>0,126</t>
   </si>
   <si>
@@ -2184,102 +2148,6 @@
   </si>
   <si>
     <t>0,238</t>
-  </si>
-  <si>
-    <t>fstage12</t>
-  </si>
-  <si>
-    <t>11.plist</t>
-  </si>
-  <si>
-    <t>fstage13</t>
-  </si>
-  <si>
-    <t>12.plist</t>
-  </si>
-  <si>
-    <t>fstage14</t>
-  </si>
-  <si>
-    <t>13.plist</t>
-  </si>
-  <si>
-    <t>fstage15</t>
-  </si>
-  <si>
-    <t>14.plist</t>
-  </si>
-  <si>
-    <t>fstage16</t>
-  </si>
-  <si>
-    <t>15.plist</t>
-  </si>
-  <si>
-    <t>fstage17</t>
-  </si>
-  <si>
-    <t>16.plist</t>
-  </si>
-  <si>
-    <t>fstage18</t>
-  </si>
-  <si>
-    <t>17.plist</t>
-  </si>
-  <si>
-    <t>fstage19</t>
-  </si>
-  <si>
-    <t>18.plist</t>
-  </si>
-  <si>
-    <t>fstage20</t>
-  </si>
-  <si>
-    <t>19.plist</t>
-  </si>
-  <si>
-    <t>fstage21</t>
-  </si>
-  <si>
-    <t>20.plist</t>
-  </si>
-  <si>
-    <t>fstage22</t>
-  </si>
-  <si>
-    <t>21.plist</t>
-  </si>
-  <si>
-    <t>fstage23</t>
-  </si>
-  <si>
-    <t>22.plist</t>
-  </si>
-  <si>
-    <t>fstage24</t>
-  </si>
-  <si>
-    <t>23.plist</t>
-  </si>
-  <si>
-    <t>fstage25</t>
-  </si>
-  <si>
-    <t>24.plist</t>
-  </si>
-  <si>
-    <t>fstage26</t>
-  </si>
-  <si>
-    <t>25.plist</t>
-  </si>
-  <si>
-    <t>fstage27</t>
-  </si>
-  <si>
-    <t>26.plist</t>
   </si>
   <si>
     <t>小蘑菇</t>
@@ -4481,10 +4349,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="G5" s="6">
         <v>100</v>
@@ -4525,10 +4393,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="G6" s="6">
         <v>150</v>
@@ -4569,10 +4437,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="G7" s="6">
         <v>70</v>
@@ -4613,10 +4481,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="G8" s="6">
         <v>100</v>
@@ -4657,10 +4525,10 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="F9" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="G9" s="6">
         <v>100</v>
@@ -4701,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="G10" s="6">
         <v>100</v>
@@ -4744,10 +4612,10 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="F11" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="G11" s="6">
         <v>100</v>
@@ -4787,10 +4655,10 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="F12" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="G12" s="6">
         <v>100</v>
@@ -4830,10 +4698,10 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="F13" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="G13" s="6">
         <v>100</v>
@@ -4873,10 +4741,10 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="F14" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="G14" s="6">
         <v>100</v>
@@ -4916,10 +4784,10 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="F15" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="G15" s="6">
         <v>100</v>
@@ -4959,10 +4827,10 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="F16" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="G16" s="6">
         <v>100</v>
@@ -5002,10 +4870,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="G17" s="6">
         <v>100</v>
@@ -5045,10 +4913,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="F18" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="G18" s="6">
         <v>100</v>
@@ -5088,10 +4956,10 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="F19" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="G19" s="6">
         <v>100</v>
@@ -5131,10 +4999,10 @@
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="F20" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="G20" s="6">
         <v>100</v>
@@ -5174,10 +5042,10 @@
         <v>17</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="G21" s="6">
         <v>100</v>
@@ -5217,10 +5085,10 @@
         <v>18</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="G22" s="6">
         <v>100</v>
@@ -5260,10 +5128,10 @@
         <v>19</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="G23" s="6">
         <v>100</v>
@@ -5303,10 +5171,10 @@
         <v>20</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="G24" s="6">
         <v>100</v>
@@ -5346,10 +5214,10 @@
         <v>21</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>469</v>
+        <v>425</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>469</v>
+        <v>425</v>
       </c>
       <c r="G25" s="6">
         <v>100</v>
@@ -5389,10 +5257,10 @@
         <v>22</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="G26" s="6">
         <v>100</v>
@@ -5432,10 +5300,10 @@
         <v>23</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="G27" s="6">
         <v>100</v>
@@ -5475,10 +5343,10 @@
         <v>24</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="G28" s="6">
         <v>100</v>
@@ -5518,10 +5386,10 @@
         <v>25</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="G29" s="6">
         <v>100</v>
@@ -5561,10 +5429,10 @@
         <v>26</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="G30" s="6">
         <v>100</v>
@@ -5604,10 +5472,10 @@
         <v>27</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="G31" s="6">
         <v>100</v>
@@ -5647,10 +5515,10 @@
         <v>28</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="G32" s="6">
         <v>100</v>
@@ -5690,10 +5558,10 @@
         <v>29</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="G33" s="6">
         <v>100</v>
@@ -5733,10 +5601,10 @@
         <v>30</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="G34" s="6">
         <v>100</v>
@@ -5776,10 +5644,10 @@
         <v>31</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="G35" s="6">
         <v>100</v>
@@ -5819,10 +5687,10 @@
         <v>32</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="G36" s="6">
         <v>100</v>
@@ -5865,10 +5733,10 @@
         <v>33</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="G37" s="6">
         <v>100</v>
@@ -5911,10 +5779,10 @@
         <v>34</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
       <c r="G38" s="6">
         <v>100</v>
@@ -5957,10 +5825,10 @@
         <v>35</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="G39" s="6">
         <v>100</v>
@@ -6003,10 +5871,10 @@
         <v>36</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="G40" s="6">
         <v>100</v>
@@ -6049,10 +5917,10 @@
         <v>37</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="G41" s="6">
         <v>100</v>
@@ -6095,10 +5963,10 @@
         <v>38</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="G42" s="6">
         <v>100</v>
@@ -6141,10 +6009,10 @@
         <v>39</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="G43" s="6">
         <v>100</v>
@@ -6788,27 +6656,27 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
@@ -6832,10 +6700,10 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
@@ -6848,7 +6716,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
@@ -6856,7 +6724,7 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.15">
@@ -6864,7 +6732,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.15">
@@ -6872,7 +6740,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.15">
@@ -6945,13 +6813,13 @@
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E45" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
@@ -6959,7 +6827,7 @@
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
@@ -6982,16 +6850,16 @@
         <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D50" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E50" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F50" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
@@ -7019,13 +6887,13 @@
         <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E55" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
@@ -7053,7 +6921,7 @@
         <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
@@ -7081,10 +6949,10 @@
         <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E65" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.15">
@@ -7112,10 +6980,10 @@
         <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E70" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
@@ -7143,10 +7011,10 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E75" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
@@ -7154,7 +7022,7 @@
         <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.15">
@@ -7177,13 +7045,13 @@
         <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D80" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E80" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
@@ -7211,10 +7079,10 @@
         <v>61</v>
       </c>
       <c r="C85" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E85" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.15">
@@ -7237,10 +7105,10 @@
         <v>65</v>
       </c>
       <c r="C89" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E89" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
@@ -7800,7 +7668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="U154" sqref="U154"/>
@@ -7993,7 +7861,7 @@
         <v>4</v>
       </c>
       <c r="U3" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="V3">
         <f>VLOOKUP(S3,映射表!T:U,2,FALSE)</f>
@@ -8106,7 +7974,7 @@
         <v>5</v>
       </c>
       <c r="U4" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="V4">
         <f>VLOOKUP(S4,映射表!T:U,2,FALSE)</f>
@@ -8222,7 +8090,7 @@
         <v>8</v>
       </c>
       <c r="U5" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="V5">
         <f>VLOOKUP(S5,映射表!T:U,2,FALSE)</f>
@@ -8341,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="U6" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="V6">
         <f>VLOOKUP(S6,映射表!T:U,2,FALSE)</f>
@@ -8460,7 +8328,7 @@
         <v>5</v>
       </c>
       <c r="U7" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="V7">
         <f>VLOOKUP(S7,映射表!T:U,2,FALSE)</f>
@@ -8579,7 +8447,7 @@
         <v>3</v>
       </c>
       <c r="U8" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="V8">
         <f>VLOOKUP(S8,映射表!T:U,2,FALSE)</f>
@@ -8698,7 +8566,7 @@
         <v>8</v>
       </c>
       <c r="U9" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="V9">
         <f>VLOOKUP(S9,映射表!T:U,2,FALSE)</f>
@@ -8814,7 +8682,7 @@
         <v>4</v>
       </c>
       <c r="U10" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="V10">
         <f>VLOOKUP(S10,映射表!T:U,2,FALSE)</f>
@@ -8927,7 +8795,7 @@
         <v>2</v>
       </c>
       <c r="U11" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="V11">
         <f>VLOOKUP(S11,映射表!T:U,2,FALSE)</f>
@@ -9040,7 +8908,7 @@
         <v>6</v>
       </c>
       <c r="U12" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="V12">
         <f>VLOOKUP(S12,映射表!T:U,2,FALSE)</f>
@@ -9153,7 +9021,7 @@
         <v>7</v>
       </c>
       <c r="U13" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="V13">
         <f>VLOOKUP(S13,映射表!T:U,2,FALSE)</f>
@@ -9266,7 +9134,7 @@
         <v>9</v>
       </c>
       <c r="U14" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="V14">
         <f>VLOOKUP(S14,映射表!T:U,2,FALSE)</f>
@@ -9379,7 +9247,7 @@
         <v>2</v>
       </c>
       <c r="U15" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="V15">
         <f>VLOOKUP(S15,映射表!T:U,2,FALSE)</f>
@@ -9492,7 +9360,7 @@
         <v>4</v>
       </c>
       <c r="U16" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="V16">
         <f>VLOOKUP(S16,映射表!T:U,2,FALSE)</f>
@@ -9605,7 +9473,7 @@
         <v>6</v>
       </c>
       <c r="U17" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="V17">
         <f>VLOOKUP(S17,映射表!T:U,2,FALSE)</f>
@@ -9718,7 +9586,7 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="V18">
         <f>VLOOKUP(S18,映射表!T:U,2,FALSE)</f>
@@ -9831,7 +9699,7 @@
         <v>3</v>
       </c>
       <c r="U19" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="V19">
         <f>VLOOKUP(S19,映射表!T:U,2,FALSE)</f>
@@ -9944,7 +9812,7 @@
         <v>1</v>
       </c>
       <c r="U20" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="V20">
         <f>VLOOKUP(S20,映射表!T:U,2,FALSE)</f>
@@ -10057,7 +9925,7 @@
         <v>2</v>
       </c>
       <c r="U21" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="V21">
         <f>VLOOKUP(S21,映射表!T:U,2,FALSE)</f>
@@ -10170,7 +10038,7 @@
         <v>3</v>
       </c>
       <c r="U22" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="V22">
         <f>VLOOKUP(S22,映射表!T:U,2,FALSE)</f>
@@ -10283,7 +10151,7 @@
         <v>5</v>
       </c>
       <c r="U23" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="V23">
         <f>VLOOKUP(S23,映射表!T:U,2,FALSE)</f>
@@ -10396,7 +10264,7 @@
         <v>1</v>
       </c>
       <c r="U24" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V24">
         <f>VLOOKUP(S24,映射表!T:U,2,FALSE)</f>
@@ -10509,7 +10377,7 @@
         <v>3</v>
       </c>
       <c r="U25" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V25">
         <f>VLOOKUP(S25,映射表!T:U,2,FALSE)</f>
@@ -10622,7 +10490,7 @@
         <v>4</v>
       </c>
       <c r="U26" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="V26">
         <f>VLOOKUP(S26,映射表!T:U,2,FALSE)</f>
@@ -10735,7 +10603,7 @@
         <v>6</v>
       </c>
       <c r="U27" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="V27">
         <f>VLOOKUP(S27,映射表!T:U,2,FALSE)</f>
@@ -10848,7 +10716,7 @@
         <v>8</v>
       </c>
       <c r="U28" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="V28">
         <f>VLOOKUP(S28,映射表!T:U,2,FALSE)</f>
@@ -10961,7 +10829,7 @@
         <v>1</v>
       </c>
       <c r="U29" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V29">
         <f>VLOOKUP(S29,映射表!T:U,2,FALSE)</f>
@@ -11074,7 +10942,7 @@
         <v>2</v>
       </c>
       <c r="U30" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V30">
         <f>VLOOKUP(S30,映射表!T:U,2,FALSE)</f>
@@ -11187,7 +11055,7 @@
         <v>3</v>
       </c>
       <c r="U31" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V31">
         <f>VLOOKUP(S31,映射表!T:U,2,FALSE)</f>
@@ -11300,7 +11168,7 @@
         <v>7</v>
       </c>
       <c r="U32" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="V32">
         <f>VLOOKUP(S32,映射表!T:U,2,FALSE)</f>
@@ -11413,7 +11281,7 @@
         <v>9</v>
       </c>
       <c r="U33" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="V33">
         <f>VLOOKUP(S33,映射表!T:U,2,FALSE)</f>
@@ -11526,7 +11394,7 @@
         <v>2</v>
       </c>
       <c r="U34" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V34">
         <f>VLOOKUP(S34,映射表!T:U,2,FALSE)</f>
@@ -11639,7 +11507,7 @@
         <v>4</v>
       </c>
       <c r="U35" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="V35">
         <f>VLOOKUP(S35,映射表!T:U,2,FALSE)</f>
@@ -11752,7 +11620,7 @@
         <v>5</v>
       </c>
       <c r="U36" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="V36">
         <f>VLOOKUP(S36,映射表!T:U,2,FALSE)</f>
@@ -11865,7 +11733,7 @@
         <v>6</v>
       </c>
       <c r="U37" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="V37">
         <f>VLOOKUP(S37,映射表!T:U,2,FALSE)</f>
@@ -11978,7 +11846,7 @@
         <v>8</v>
       </c>
       <c r="U38" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="V38">
         <f>VLOOKUP(S38,映射表!T:U,2,FALSE)</f>
@@ -12091,7 +11959,7 @@
         <v>1</v>
       </c>
       <c r="U39" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V39">
         <f>VLOOKUP(S39,映射表!T:U,2,FALSE)</f>
@@ -12204,7 +12072,7 @@
         <v>2</v>
       </c>
       <c r="U40" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V40">
         <f>VLOOKUP(S40,映射表!T:U,2,FALSE)</f>
@@ -12317,7 +12185,7 @@
         <v>3</v>
       </c>
       <c r="U41" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V41">
         <f>VLOOKUP(S41,映射表!T:U,2,FALSE)</f>
@@ -12430,7 +12298,7 @@
         <v>5</v>
       </c>
       <c r="U42" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="V42">
         <f>VLOOKUP(S42,映射表!T:U,2,FALSE)</f>
@@ -12543,7 +12411,7 @@
         <v>8</v>
       </c>
       <c r="U43" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="V43">
         <f>VLOOKUP(S43,映射表!T:U,2,FALSE)</f>
@@ -12656,7 +12524,7 @@
         <v>5</v>
       </c>
       <c r="U44" t="s">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="V44">
         <f>VLOOKUP(S44,映射表!T:U,2,FALSE)</f>
@@ -12769,7 +12637,7 @@
         <v>8</v>
       </c>
       <c r="U45" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="V45">
         <f>VLOOKUP(S45,映射表!T:U,2,FALSE)</f>
@@ -12882,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="U46" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V46">
         <f>VLOOKUP(S46,映射表!T:U,2,FALSE)</f>
@@ -12995,7 +12863,7 @@
         <v>2</v>
       </c>
       <c r="U47" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V47">
         <f>VLOOKUP(S47,映射表!T:U,2,FALSE)</f>
@@ -13108,7 +12976,7 @@
         <v>3</v>
       </c>
       <c r="U48" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V48">
         <f>VLOOKUP(S48,映射表!T:U,2,FALSE)</f>
@@ -13221,7 +13089,7 @@
         <v>7</v>
       </c>
       <c r="U49" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="V49">
         <f>VLOOKUP(S49,映射表!T:U,2,FALSE)</f>
@@ -13334,7 +13202,7 @@
         <v>9</v>
       </c>
       <c r="U50" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="V50">
         <f>VLOOKUP(S50,映射表!T:U,2,FALSE)</f>
@@ -13447,7 +13315,7 @@
         <v>1</v>
       </c>
       <c r="U51" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="V51">
         <f>VLOOKUP(S51,映射表!T:U,2,FALSE)</f>
@@ -13560,7 +13428,7 @@
         <v>5</v>
       </c>
       <c r="U52" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="V52">
         <f>VLOOKUP(S52,映射表!T:U,2,FALSE)</f>
@@ -13673,7 +13541,7 @@
         <v>3</v>
       </c>
       <c r="U53" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="V53">
         <f>VLOOKUP(S53,映射表!T:U,2,FALSE)</f>
@@ -13786,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="U54" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V54">
         <f>VLOOKUP(S54,映射表!T:U,2,FALSE)</f>
@@ -13899,7 +13767,7 @@
         <v>3</v>
       </c>
       <c r="U55" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V55">
         <f>VLOOKUP(S55,映射表!T:U,2,FALSE)</f>
@@ -14012,7 +13880,7 @@
         <v>4</v>
       </c>
       <c r="U56" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="V56">
         <f>VLOOKUP(S56,映射表!T:U,2,FALSE)</f>
@@ -14125,7 +13993,7 @@
         <v>6</v>
       </c>
       <c r="U57" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="V57">
         <f>VLOOKUP(S57,映射表!T:U,2,FALSE)</f>
@@ -14238,7 +14106,7 @@
         <v>8</v>
       </c>
       <c r="U58" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="V58">
         <f>VLOOKUP(S58,映射表!T:U,2,FALSE)</f>
@@ -14351,7 +14219,7 @@
         <v>1</v>
       </c>
       <c r="U59" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="V59">
         <f>VLOOKUP(S59,映射表!T:U,2,FALSE)</f>
@@ -14464,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="U60" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="V60">
         <f>VLOOKUP(S60,映射表!T:U,2,FALSE)</f>
@@ -14577,7 +14445,7 @@
         <v>3</v>
       </c>
       <c r="U61" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="V61">
         <f>VLOOKUP(S61,映射表!T:U,2,FALSE)</f>
@@ -14690,7 +14558,7 @@
         <v>7</v>
       </c>
       <c r="U62" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="V62">
         <f>VLOOKUP(S62,映射表!T:U,2,FALSE)</f>
@@ -14803,7 +14671,7 @@
         <v>9</v>
       </c>
       <c r="U63" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="V63">
         <f>VLOOKUP(S63,映射表!T:U,2,FALSE)</f>
@@ -14916,7 +14784,7 @@
         <v>2</v>
       </c>
       <c r="U64" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="V64">
         <f>VLOOKUP(S64,映射表!T:U,2,FALSE)</f>
@@ -15029,7 +14897,7 @@
         <v>4</v>
       </c>
       <c r="U65" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="V65">
         <f>VLOOKUP(S65,映射表!T:U,2,FALSE)</f>
@@ -15142,7 +15010,7 @@
         <v>6</v>
       </c>
       <c r="U66" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="V66">
         <f>VLOOKUP(S66,映射表!T:U,2,FALSE)</f>
@@ -15255,7 +15123,7 @@
         <v>7</v>
       </c>
       <c r="U67" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="V67">
         <f>VLOOKUP(S67,映射表!T:U,2,FALSE)</f>
@@ -15368,7 +15236,7 @@
         <v>8</v>
       </c>
       <c r="U68" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="V68">
         <f>VLOOKUP(S68,映射表!T:U,2,FALSE)</f>
@@ -15481,7 +15349,7 @@
         <v>9</v>
       </c>
       <c r="U69" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="V69">
         <f>VLOOKUP(S69,映射表!T:U,2,FALSE)</f>
@@ -15594,7 +15462,7 @@
         <v>1</v>
       </c>
       <c r="U70" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="V70">
         <f>VLOOKUP(S70,映射表!T:U,2,FALSE)</f>
@@ -15707,7 +15575,7 @@
         <v>3</v>
       </c>
       <c r="U71" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="V71">
         <f>VLOOKUP(S71,映射表!T:U,2,FALSE)</f>
@@ -15820,7 +15688,7 @@
         <v>5</v>
       </c>
       <c r="U72" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="V72">
         <f>VLOOKUP(S72,映射表!T:U,2,FALSE)</f>
@@ -15933,7 +15801,7 @@
         <v>7</v>
       </c>
       <c r="U73" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="V73">
         <f>VLOOKUP(S73,映射表!T:U,2,FALSE)</f>
@@ -16046,7 +15914,7 @@
         <v>9</v>
       </c>
       <c r="U74" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="V74">
         <f>VLOOKUP(S74,映射表!T:U,2,FALSE)</f>
@@ -16159,7 +16027,7 @@
         <v>2</v>
       </c>
       <c r="U75" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="V75">
         <f>VLOOKUP(S75,映射表!T:U,2,FALSE)</f>
@@ -16272,7 +16140,7 @@
         <v>4</v>
       </c>
       <c r="U76" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="V76">
         <f>VLOOKUP(S76,映射表!T:U,2,FALSE)</f>
@@ -16385,7 +16253,7 @@
         <v>6</v>
       </c>
       <c r="U77" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="V77">
         <f>VLOOKUP(S77,映射表!T:U,2,FALSE)</f>
@@ -16498,7 +16366,7 @@
         <v>8</v>
       </c>
       <c r="U78" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="V78">
         <f>VLOOKUP(S78,映射表!T:U,2,FALSE)</f>
@@ -16611,7 +16479,7 @@
         <v>5</v>
       </c>
       <c r="U79" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V79">
         <f>VLOOKUP(S79,映射表!T:U,2,FALSE)</f>
@@ -16724,7 +16592,7 @@
         <v>1</v>
       </c>
       <c r="U80" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V80">
         <f>VLOOKUP(S80,映射表!T:U,2,FALSE)</f>
@@ -16837,7 +16705,7 @@
         <v>3</v>
       </c>
       <c r="U81" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V81">
         <f>VLOOKUP(S81,映射表!T:U,2,FALSE)</f>
@@ -16950,7 +16818,7 @@
         <v>5</v>
       </c>
       <c r="U82" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="V82">
         <f>VLOOKUP(S82,映射表!T:U,2,FALSE)</f>
@@ -17063,7 +16931,7 @@
         <v>7</v>
       </c>
       <c r="U83" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="V83">
         <f>VLOOKUP(S83,映射表!T:U,2,FALSE)</f>
@@ -17176,7 +17044,7 @@
         <v>9</v>
       </c>
       <c r="U84" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="V84">
         <f>VLOOKUP(S84,映射表!T:U,2,FALSE)</f>
@@ -17289,7 +17157,7 @@
         <v>1</v>
       </c>
       <c r="U85" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V85">
         <f>VLOOKUP(S85,映射表!T:U,2,FALSE)</f>
@@ -17402,7 +17270,7 @@
         <v>2</v>
       </c>
       <c r="U86" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V86">
         <f>VLOOKUP(S86,映射表!T:U,2,FALSE)</f>
@@ -17515,7 +17383,7 @@
         <v>3</v>
       </c>
       <c r="U87" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V87">
         <f>VLOOKUP(S87,映射表!T:U,2,FALSE)</f>
@@ -17628,7 +17496,7 @@
         <v>5</v>
       </c>
       <c r="U88" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="V88">
         <f>VLOOKUP(S88,映射表!T:U,2,FALSE)</f>
@@ -17741,7 +17609,7 @@
         <v>8</v>
       </c>
       <c r="U89" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="V89">
         <f>VLOOKUP(S89,映射表!T:U,2,FALSE)</f>
@@ -17854,7 +17722,7 @@
         <v>2</v>
       </c>
       <c r="U90" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V90">
         <f>VLOOKUP(S90,映射表!T:U,2,FALSE)</f>
@@ -17967,7 +17835,7 @@
         <v>4</v>
       </c>
       <c r="U91" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V91">
         <f>VLOOKUP(S91,映射表!T:U,2,FALSE)</f>
@@ -18080,7 +17948,7 @@
         <v>6</v>
       </c>
       <c r="U92" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V92">
         <f>VLOOKUP(S92,映射表!T:U,2,FALSE)</f>
@@ -18193,7 +18061,7 @@
         <v>7</v>
       </c>
       <c r="U93" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="V93">
         <f>VLOOKUP(S93,映射表!T:U,2,FALSE)</f>
@@ -18306,7 +18174,7 @@
         <v>8</v>
       </c>
       <c r="U94" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="V94">
         <f>VLOOKUP(S94,映射表!T:U,2,FALSE)</f>
@@ -18419,7 +18287,7 @@
         <v>9</v>
       </c>
       <c r="U95" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="V95">
         <f>VLOOKUP(S95,映射表!T:U,2,FALSE)</f>
@@ -18532,7 +18400,7 @@
         <v>1</v>
       </c>
       <c r="U96" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V96">
         <f>VLOOKUP(S96,映射表!T:U,2,FALSE)</f>
@@ -18645,7 +18513,7 @@
         <v>3</v>
       </c>
       <c r="U97" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V97">
         <f>VLOOKUP(S97,映射表!T:U,2,FALSE)</f>
@@ -18758,7 +18626,7 @@
         <v>7</v>
       </c>
       <c r="U98" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="V98">
         <f>VLOOKUP(S98,映射表!T:U,2,FALSE)</f>
@@ -18871,7 +18739,7 @@
         <v>2</v>
       </c>
       <c r="U99" t="s">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="V99">
         <f>VLOOKUP(S99,映射表!T:U,2,FALSE)</f>
@@ -18984,7 +18852,7 @@
         <v>9</v>
       </c>
       <c r="U100" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="V100">
         <f>VLOOKUP(S100,映射表!T:U,2,FALSE)</f>
@@ -19097,7 +18965,7 @@
         <v>5</v>
       </c>
       <c r="U101" t="s">
-        <v>518</v>
+        <v>474</v>
       </c>
       <c r="V101">
         <f>VLOOKUP(S101,映射表!T:U,2,FALSE)</f>
@@ -19210,7 +19078,7 @@
         <v>8</v>
       </c>
       <c r="U102" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V102">
         <f>VLOOKUP(S102,映射表!T:U,2,FALSE)</f>
@@ -19323,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="U103" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="V103">
         <f>VLOOKUP(S103,映射表!T:U,2,FALSE)</f>
@@ -19436,7 +19304,7 @@
         <v>3</v>
       </c>
       <c r="U104" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="V104">
         <f>VLOOKUP(S104,映射表!T:U,2,FALSE)</f>
@@ -19549,7 +19417,7 @@
         <v>4</v>
       </c>
       <c r="U105" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="V105">
         <f>VLOOKUP(S105,映射表!T:U,2,FALSE)</f>
@@ -19662,7 +19530,7 @@
         <v>6</v>
       </c>
       <c r="U106" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="V106">
         <f>VLOOKUP(S106,映射表!T:U,2,FALSE)</f>
@@ -19775,7 +19643,7 @@
         <v>5</v>
       </c>
       <c r="U107" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V107">
         <f>VLOOKUP(S107,映射表!T:U,2,FALSE)</f>
@@ -19888,7 +19756,7 @@
         <v>8</v>
       </c>
       <c r="U108" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V108">
         <f>VLOOKUP(S108,映射表!T:U,2,FALSE)</f>
@@ -20001,7 +19869,7 @@
         <v>1</v>
       </c>
       <c r="U109" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V109">
         <f>VLOOKUP(S109,映射表!T:U,2,FALSE)</f>
@@ -20114,7 +19982,7 @@
         <v>3</v>
       </c>
       <c r="U110" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V110">
         <f>VLOOKUP(S110,映射表!T:U,2,FALSE)</f>
@@ -20227,7 +20095,7 @@
         <v>2</v>
       </c>
       <c r="U111" t="s">
-        <v>520</v>
+        <v>476</v>
       </c>
       <c r="V111">
         <f>VLOOKUP(S111,映射表!T:U,2,FALSE)</f>
@@ -20340,7 +20208,7 @@
         <v>7</v>
       </c>
       <c r="U112" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V112">
         <f>VLOOKUP(S112,映射表!T:U,2,FALSE)</f>
@@ -20453,7 +20321,7 @@
         <v>8</v>
       </c>
       <c r="U113" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V113">
         <f>VLOOKUP(S113,映射表!T:U,2,FALSE)</f>
@@ -20566,7 +20434,7 @@
         <v>9</v>
       </c>
       <c r="U114" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V114">
         <f>VLOOKUP(S114,映射表!T:U,2,FALSE)</f>
@@ -20679,7 +20547,7 @@
         <v>1</v>
       </c>
       <c r="U115" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V115">
         <f>VLOOKUP(S115,映射表!T:U,2,FALSE)</f>
@@ -20792,7 +20660,7 @@
         <v>3</v>
       </c>
       <c r="U116" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V116">
         <f>VLOOKUP(S116,映射表!T:U,2,FALSE)</f>
@@ -20905,7 +20773,7 @@
         <v>4</v>
       </c>
       <c r="U117" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V117">
         <f>VLOOKUP(S117,映射表!T:U,2,FALSE)</f>
@@ -21018,7 +20886,7 @@
         <v>6</v>
       </c>
       <c r="U118" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V118">
         <f>VLOOKUP(S118,映射表!T:U,2,FALSE)</f>
@@ -21131,7 +20999,7 @@
         <v>7</v>
       </c>
       <c r="U119" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V119">
         <f>VLOOKUP(S119,映射表!T:U,2,FALSE)</f>
@@ -21244,7 +21112,7 @@
         <v>9</v>
       </c>
       <c r="U120" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V120">
         <f>VLOOKUP(S120,映射表!T:U,2,FALSE)</f>
@@ -21357,7 +21225,7 @@
         <v>2</v>
       </c>
       <c r="U121" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V121">
         <f>VLOOKUP(S121,映射表!T:U,2,FALSE)</f>
@@ -21470,7 +21338,7 @@
         <v>9</v>
       </c>
       <c r="U122" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V122">
         <f>VLOOKUP(S122,映射表!T:U,2,FALSE)</f>
@@ -21583,7 +21451,7 @@
         <v>7</v>
       </c>
       <c r="U123" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V123">
         <f>VLOOKUP(S123,映射表!T:U,2,FALSE)</f>
@@ -21696,7 +21564,7 @@
         <v>5</v>
       </c>
       <c r="U124" s="19" t="s">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="V124">
         <f>VLOOKUP(S124,映射表!T:U,2,FALSE)</f>
@@ -21809,7 +21677,7 @@
         <v>1</v>
       </c>
       <c r="U125" s="20" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="V125">
         <f>VLOOKUP(S125,映射表!T:U,2,FALSE)</f>
@@ -21922,7 +21790,7 @@
         <v>3</v>
       </c>
       <c r="U126" s="20" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="V126">
         <f>VLOOKUP(S126,映射表!T:U,2,FALSE)</f>
@@ -22035,7 +21903,7 @@
         <v>8</v>
       </c>
       <c r="U127" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="V127">
         <f>VLOOKUP(S127,映射表!T:U,2,FALSE)</f>
@@ -22148,7 +22016,7 @@
         <v>6</v>
       </c>
       <c r="U128" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="V128">
         <f>VLOOKUP(S128,映射表!T:U,2,FALSE)</f>
@@ -22261,7 +22129,7 @@
         <v>4</v>
       </c>
       <c r="U129" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="V129">
         <f>VLOOKUP(S129,映射表!T:U,2,FALSE)</f>
@@ -22374,7 +22242,7 @@
         <v>3</v>
       </c>
       <c r="U130" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="V130">
         <f>VLOOKUP(S130,映射表!T:U,2,FALSE)</f>
@@ -22487,7 +22355,7 @@
         <v>1</v>
       </c>
       <c r="U131" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="V131">
         <f>VLOOKUP(S131,映射表!T:U,2,FALSE)</f>
@@ -22600,7 +22468,7 @@
         <v>2</v>
       </c>
       <c r="U132" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="V132">
         <f>VLOOKUP(S132,映射表!T:U,2,FALSE)</f>
@@ -22713,7 +22581,7 @@
         <v>4</v>
       </c>
       <c r="U133" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="V133">
         <f>VLOOKUP(S133,映射表!T:U,2,FALSE)</f>
@@ -22826,7 +22694,7 @@
         <v>6</v>
       </c>
       <c r="U134" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="V134">
         <f>VLOOKUP(S134,映射表!T:U,2,FALSE)</f>
@@ -22939,7 +22807,7 @@
         <v>8</v>
       </c>
       <c r="U135" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="V135">
         <f>VLOOKUP(S135,映射表!T:U,2,FALSE)</f>
@@ -23052,7 +22920,7 @@
         <v>9</v>
       </c>
       <c r="U136" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="V136">
         <f>VLOOKUP(S136,映射表!T:U,2,FALSE)</f>
@@ -23165,7 +23033,7 @@
         <v>9</v>
       </c>
       <c r="U137" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="V137">
         <f>VLOOKUP(S137,映射表!T:U,2,FALSE)</f>
@@ -23278,7 +23146,7 @@
         <v>9</v>
       </c>
       <c r="U138" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="V138">
         <f>VLOOKUP(S138,映射表!T:U,2,FALSE)</f>
@@ -23391,7 +23259,7 @@
         <v>9</v>
       </c>
       <c r="U139" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="V139">
         <f>VLOOKUP(S139,映射表!T:U,2,FALSE)</f>
@@ -23504,7 +23372,7 @@
         <v>9</v>
       </c>
       <c r="U140" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="V140">
         <f>VLOOKUP(S140,映射表!T:U,2,FALSE)</f>
@@ -23617,7 +23485,7 @@
         <v>9</v>
       </c>
       <c r="U141" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="V141">
         <f>VLOOKUP(S141,映射表!T:U,2,FALSE)</f>
@@ -23730,7 +23598,7 @@
         <v>2</v>
       </c>
       <c r="U142" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="V142">
         <f>VLOOKUP(S142,映射表!T:U,2,FALSE)</f>
@@ -23843,7 +23711,7 @@
         <v>5</v>
       </c>
       <c r="U143" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="V143">
         <f>VLOOKUP(S143,映射表!T:U,2,FALSE)</f>
@@ -23956,7 +23824,7 @@
         <v>7</v>
       </c>
       <c r="U144" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="V144">
         <f>VLOOKUP(S144,映射表!T:U,2,FALSE)</f>
@@ -24069,7 +23937,7 @@
         <v>9</v>
       </c>
       <c r="U145" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="V145">
         <f>VLOOKUP(S145,映射表!T:U,2,FALSE)</f>
@@ -24182,7 +24050,7 @@
         <v>3</v>
       </c>
       <c r="U146" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="V146">
         <f>VLOOKUP(S146,映射表!T:U,2,FALSE)</f>
@@ -24295,7 +24163,7 @@
         <v>1</v>
       </c>
       <c r="U147" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="V147">
         <f>VLOOKUP(S147,映射表!T:U,2,FALSE)</f>
@@ -24408,7 +24276,7 @@
         <v>1</v>
       </c>
       <c r="U148" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="V148">
         <f>VLOOKUP(S148,映射表!T:U,2,FALSE)</f>
@@ -24521,7 +24389,7 @@
         <v>5</v>
       </c>
       <c r="U149" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="V149">
         <f>VLOOKUP(S149,映射表!T:U,2,FALSE)</f>
@@ -24634,7 +24502,7 @@
         <v>2</v>
       </c>
       <c r="U150" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="V150">
         <f>VLOOKUP(S150,映射表!T:U,2,FALSE)</f>
@@ -24747,7 +24615,7 @@
         <v>7</v>
       </c>
       <c r="U151" s="19" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="V151">
         <f>VLOOKUP(S151,映射表!T:U,2,FALSE)</f>
@@ -24860,7 +24728,7 @@
         <v>8</v>
       </c>
       <c r="U152" s="20" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="V152">
         <f>VLOOKUP(S152,映射表!T:U,2,FALSE)</f>
@@ -24973,7 +24841,7 @@
         <v>9</v>
       </c>
       <c r="U153" s="19" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="V153">
         <f>VLOOKUP(S153,映射表!T:U,2,FALSE)</f>
@@ -25086,7 +24954,7 @@
         <v>8</v>
       </c>
       <c r="U154" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V154">
         <f>VLOOKUP(S154,映射表!T:U,2,FALSE)</f>
@@ -25199,7 +25067,7 @@
         <v>1</v>
       </c>
       <c r="U155" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="V155">
         <f>VLOOKUP(S155,映射表!T:U,2,FALSE)</f>
@@ -25312,7 +25180,7 @@
         <v>3</v>
       </c>
       <c r="U156" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="V156">
         <f>VLOOKUP(S156,映射表!T:U,2,FALSE)</f>
@@ -25425,7 +25293,7 @@
         <v>4</v>
       </c>
       <c r="U157" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="V157">
         <f>VLOOKUP(S157,映射表!T:U,2,FALSE)</f>
@@ -25538,7 +25406,7 @@
         <v>6</v>
       </c>
       <c r="U158" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="V158">
         <f>VLOOKUP(S158,映射表!T:U,2,FALSE)</f>
@@ -25651,7 +25519,7 @@
         <v>5</v>
       </c>
       <c r="U159" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V159">
         <f>VLOOKUP(S159,映射表!T:U,2,FALSE)</f>
@@ -25764,7 +25632,7 @@
         <v>8</v>
       </c>
       <c r="U160" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V160">
         <f>VLOOKUP(S160,映射表!T:U,2,FALSE)</f>
@@ -25877,7 +25745,7 @@
         <v>1</v>
       </c>
       <c r="U161" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V161">
         <f>VLOOKUP(S161,映射表!T:U,2,FALSE)</f>
@@ -25990,7 +25858,7 @@
         <v>3</v>
       </c>
       <c r="U162" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="V162">
         <f>VLOOKUP(S162,映射表!T:U,2,FALSE)</f>
@@ -26103,7 +25971,7 @@
         <v>2</v>
       </c>
       <c r="U163" t="s">
-        <v>520</v>
+        <v>476</v>
       </c>
       <c r="V163">
         <f>VLOOKUP(S163,映射表!T:U,2,FALSE)</f>
@@ -26216,7 +26084,7 @@
         <v>7</v>
       </c>
       <c r="U164" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V164">
         <f>VLOOKUP(S164,映射表!T:U,2,FALSE)</f>
@@ -26329,7 +26197,7 @@
         <v>8</v>
       </c>
       <c r="U165" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V165">
         <f>VLOOKUP(S165,映射表!T:U,2,FALSE)</f>
@@ -26442,7 +26310,7 @@
         <v>9</v>
       </c>
       <c r="U166" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V166">
         <f>VLOOKUP(S166,映射表!T:U,2,FALSE)</f>
@@ -26555,7 +26423,7 @@
         <v>1</v>
       </c>
       <c r="U167" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V167">
         <f>VLOOKUP(S167,映射表!T:U,2,FALSE)</f>
@@ -26668,7 +26536,7 @@
         <v>3</v>
       </c>
       <c r="U168" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V168">
         <f>VLOOKUP(S168,映射表!T:U,2,FALSE)</f>
@@ -26781,7 +26649,7 @@
         <v>4</v>
       </c>
       <c r="U169" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V169">
         <f>VLOOKUP(S169,映射表!T:U,2,FALSE)</f>
@@ -26894,7 +26762,7 @@
         <v>6</v>
       </c>
       <c r="U170" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V170">
         <f>VLOOKUP(S170,映射表!T:U,2,FALSE)</f>
@@ -27007,7 +26875,7 @@
         <v>7</v>
       </c>
       <c r="U171" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V171">
         <f>VLOOKUP(S171,映射表!T:U,2,FALSE)</f>
@@ -27120,7 +26988,7 @@
         <v>9</v>
       </c>
       <c r="U172" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V172">
         <f>VLOOKUP(S172,映射表!T:U,2,FALSE)</f>
@@ -27233,7 +27101,7 @@
         <v>2</v>
       </c>
       <c r="U173" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="V173">
         <f>VLOOKUP(S173,映射表!T:U,2,FALSE)</f>
@@ -27346,7 +27214,7 @@
         <v>9</v>
       </c>
       <c r="U174" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V174">
         <f>VLOOKUP(S174,映射表!T:U,2,FALSE)</f>
@@ -27459,7 +27327,7 @@
         <v>7</v>
       </c>
       <c r="U175" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="V175">
         <f>VLOOKUP(S175,映射表!T:U,2,FALSE)</f>
@@ -27572,7 +27440,7 @@
         <v>5</v>
       </c>
       <c r="U176" s="19" t="s">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="V176">
         <f>VLOOKUP(S176,映射表!T:U,2,FALSE)</f>
@@ -27685,7 +27553,7 @@
         <v>1</v>
       </c>
       <c r="U177" s="20" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="V177">
         <f>VLOOKUP(S177,映射表!T:U,2,FALSE)</f>
@@ -27798,7 +27666,7 @@
         <v>3</v>
       </c>
       <c r="U178" s="20" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="V178">
         <f>VLOOKUP(S178,映射表!T:U,2,FALSE)</f>
@@ -27911,7 +27779,7 @@
         <v>8</v>
       </c>
       <c r="U179" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="V179">
         <f>VLOOKUP(S179,映射表!T:U,2,FALSE)</f>
@@ -28024,7 +27892,7 @@
         <v>6</v>
       </c>
       <c r="U180" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="V180">
         <f>VLOOKUP(S180,映射表!T:U,2,FALSE)</f>
@@ -28137,7 +28005,7 @@
         <v>4</v>
       </c>
       <c r="U181" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="V181">
         <f>VLOOKUP(S181,映射表!T:U,2,FALSE)</f>
@@ -28250,7 +28118,7 @@
         <v>3</v>
       </c>
       <c r="U182" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="V182">
         <f>VLOOKUP(S182,映射表!T:U,2,FALSE)</f>
@@ -28363,7 +28231,7 @@
         <v>1</v>
       </c>
       <c r="U183" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="V183">
         <f>VLOOKUP(S183,映射表!T:U,2,FALSE)</f>
@@ -28476,7 +28344,7 @@
         <v>2</v>
       </c>
       <c r="U184" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="V184">
         <f>VLOOKUP(S184,映射表!T:U,2,FALSE)</f>
@@ -28589,7 +28457,7 @@
         <v>4</v>
       </c>
       <c r="U185" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="V185">
         <f>VLOOKUP(S185,映射表!T:U,2,FALSE)</f>
@@ -28702,7 +28570,7 @@
         <v>6</v>
       </c>
       <c r="U186" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="V186">
         <f>VLOOKUP(S186,映射表!T:U,2,FALSE)</f>
@@ -28815,7 +28683,7 @@
         <v>8</v>
       </c>
       <c r="U187" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="V187">
         <f>VLOOKUP(S187,映射表!T:U,2,FALSE)</f>
@@ -28928,7 +28796,7 @@
         <v>9</v>
       </c>
       <c r="U188" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="V188">
         <f>VLOOKUP(S188,映射表!T:U,2,FALSE)</f>
@@ -29041,7 +28909,7 @@
         <v>9</v>
       </c>
       <c r="U189" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="V189">
         <f>VLOOKUP(S189,映射表!T:U,2,FALSE)</f>
@@ -29154,7 +29022,7 @@
         <v>9</v>
       </c>
       <c r="U190" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="V190">
         <f>VLOOKUP(S190,映射表!T:U,2,FALSE)</f>
@@ -29267,7 +29135,7 @@
         <v>9</v>
       </c>
       <c r="U191" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="V191">
         <f>VLOOKUP(S191,映射表!T:U,2,FALSE)</f>
@@ -29380,7 +29248,7 @@
         <v>9</v>
       </c>
       <c r="U192" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="V192">
         <f>VLOOKUP(S192,映射表!T:U,2,FALSE)</f>
@@ -29493,7 +29361,7 @@
         <v>9</v>
       </c>
       <c r="U193" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="V193">
         <f>VLOOKUP(S193,映射表!T:U,2,FALSE)</f>
@@ -29606,7 +29474,7 @@
         <v>2</v>
       </c>
       <c r="U194" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="V194">
         <f>VLOOKUP(S194,映射表!T:U,2,FALSE)</f>
@@ -29719,7 +29587,7 @@
         <v>5</v>
       </c>
       <c r="U195" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="V195">
         <f>VLOOKUP(S195,映射表!T:U,2,FALSE)</f>
@@ -29832,7 +29700,7 @@
         <v>7</v>
       </c>
       <c r="U196" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="V196">
         <f>VLOOKUP(S196,映射表!T:U,2,FALSE)</f>
@@ -29945,7 +29813,7 @@
         <v>9</v>
       </c>
       <c r="U197" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="V197">
         <f>VLOOKUP(S197,映射表!T:U,2,FALSE)</f>
@@ -30058,7 +29926,7 @@
         <v>3</v>
       </c>
       <c r="U198" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="V198">
         <f>VLOOKUP(S198,映射表!T:U,2,FALSE)</f>
@@ -30171,7 +30039,7 @@
         <v>1</v>
       </c>
       <c r="U199" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="V199">
         <f>VLOOKUP(S199,映射表!T:U,2,FALSE)</f>
@@ -30284,7 +30152,7 @@
         <v>1</v>
       </c>
       <c r="U200" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="V200">
         <f>VLOOKUP(S200,映射表!T:U,2,FALSE)</f>
@@ -30397,7 +30265,7 @@
         <v>5</v>
       </c>
       <c r="U201" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="V201">
         <f>VLOOKUP(S201,映射表!T:U,2,FALSE)</f>
@@ -30510,7 +30378,7 @@
         <v>2</v>
       </c>
       <c r="U202" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="V202">
         <f>VLOOKUP(S202,映射表!T:U,2,FALSE)</f>
@@ -30623,7 +30491,7 @@
         <v>7</v>
       </c>
       <c r="U203" s="19" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="V203">
         <f>VLOOKUP(S203,映射表!T:U,2,FALSE)</f>
@@ -30736,7 +30604,7 @@
         <v>8</v>
       </c>
       <c r="U204" s="20" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="V204">
         <f>VLOOKUP(S204,映射表!T:U,2,FALSE)</f>
@@ -30849,7 +30717,7 @@
         <v>9</v>
       </c>
       <c r="U205" s="19" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="V205">
         <f>VLOOKUP(S205,映射表!T:U,2,FALSE)</f>
@@ -31089,233 +30957,233 @@
   <sheetData>
     <row r="4" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G4" s="11" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G5" s="11" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="I5" t="s">
-        <v>554</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G6" s="11" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="I6" t="s">
-        <v>555</v>
+        <v>511</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G7" s="11" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="I7" t="s">
-        <v>556</v>
+        <v>512</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G8" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="I8" t="s">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="L8" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G9" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="L9" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G10" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="L10" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G11" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="L11" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G12" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="L12" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G13" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G14" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G15" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G16" s="11" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G17" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G18" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G19" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G20" s="19" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G21" s="20" t="s">
-        <v>486</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G22" s="20" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G23" s="20" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G24" s="20" t="s">
-        <v>469</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G25" s="20" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G26" s="19" t="s">
-        <v>471</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G27" s="20" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G28" s="20" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G29" s="19" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G30" s="19" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G31" s="20" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G32" s="19" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G33" s="19" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G34" s="19" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G35" s="19" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G36" s="21" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G37" s="21" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G38" s="19" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G39" s="19" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G40" s="19" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G41" s="19" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G42" s="19" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -31331,8 +31199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -31541,7 +31409,7 @@
         <v>4000001</v>
       </c>
       <c r="B4" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
@@ -31623,16 +31491,19 @@
         <v>4000002</v>
       </c>
       <c r="B5" t="s">
-        <v>525</v>
+        <v>481</v>
       </c>
       <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>193</v>
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f>D4</f>
+        <v>fstage05</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f>E4</f>
+        <v>04.plist</v>
       </c>
       <c r="F5" s="6">
         <f>VLOOKUP(A5,深渊配置!A:C,2,FALSE)</f>
@@ -31705,16 +31576,19 @@
         <v>4000003</v>
       </c>
       <c r="B6" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
       <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>193</v>
+        <f t="shared" ref="C6:C33" si="1">C5</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f t="shared" ref="D6:D33" si="2">D5</f>
+        <v>fstage05</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f t="shared" ref="E6:E33" si="3">E5</f>
+        <v>04.plist</v>
       </c>
       <c r="F6" s="6">
         <f>VLOOKUP(A6,深渊配置!A:C,2,FALSE)</f>
@@ -31787,16 +31661,19 @@
         <v>4000004</v>
       </c>
       <c r="B7" t="s">
-        <v>527</v>
+        <v>483</v>
       </c>
       <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>193</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F7" s="6">
         <f>VLOOKUP(A7,深渊配置!A:C,2,FALSE)</f>
@@ -31869,16 +31746,19 @@
         <v>4000005</v>
       </c>
       <c r="B8" t="s">
-        <v>528</v>
+        <v>484</v>
       </c>
       <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>193</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F8" s="6">
         <f>VLOOKUP(A8,深渊配置!A:C,2,FALSE)</f>
@@ -31951,16 +31831,19 @@
         <v>4000006</v>
       </c>
       <c r="B9" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>193</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F9" s="6">
         <f>VLOOKUP(A9,深渊配置!A:C,2,FALSE)</f>
@@ -32033,16 +31916,19 @@
         <v>4000007</v>
       </c>
       <c r="B10" t="s">
-        <v>530</v>
+        <v>486</v>
       </c>
       <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>193</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F10" s="6">
         <f>VLOOKUP(A10,深渊配置!A:C,2,FALSE)</f>
@@ -32115,16 +32001,19 @@
         <v>4000008</v>
       </c>
       <c r="B11" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>193</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F11" s="6">
         <f>VLOOKUP(A11,深渊配置!A:C,2,FALSE)</f>
@@ -32197,16 +32086,19 @@
         <v>4000009</v>
       </c>
       <c r="B12" t="s">
-        <v>532</v>
+        <v>488</v>
       </c>
       <c r="C12" s="9">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F12" s="6">
         <f>VLOOKUP(A12,深渊配置!A:C,2,FALSE)</f>
@@ -32279,16 +32171,19 @@
         <v>4000010</v>
       </c>
       <c r="B13" t="s">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="C13" s="9">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>202</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F13" s="6">
         <f>VLOOKUP(A13,深渊配置!A:C,2,FALSE)</f>
@@ -32361,16 +32256,19 @@
         <v>4000011</v>
       </c>
       <c r="B14" t="s">
-        <v>534</v>
+        <v>490</v>
       </c>
       <c r="C14" s="9">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>204</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F14" s="6">
         <f>VLOOKUP(A14,深渊配置!A:C,2,FALSE)</f>
@@ -32443,16 +32341,19 @@
         <v>4000012</v>
       </c>
       <c r="B15" t="s">
-        <v>535</v>
+        <v>491</v>
       </c>
       <c r="C15" s="9">
-        <v>5</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>206</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F15" s="6">
         <f>VLOOKUP(A15,深渊配置!A:C,2,FALSE)</f>
@@ -32525,16 +32426,19 @@
         <v>4000013</v>
       </c>
       <c r="B16" t="s">
-        <v>536</v>
+        <v>492</v>
       </c>
       <c r="C16" s="9">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>208</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F16" s="6">
         <f>VLOOKUP(A16,深渊配置!A:C,2,FALSE)</f>
@@ -32607,16 +32511,19 @@
         <v>4000014</v>
       </c>
       <c r="B17" t="s">
-        <v>537</v>
+        <v>493</v>
       </c>
       <c r="C17" s="9">
-        <v>7</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>210</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F17" s="6">
         <f>VLOOKUP(A17,深渊配置!A:C,2,FALSE)</f>
@@ -32689,16 +32596,19 @@
         <v>4000015</v>
       </c>
       <c r="B18" t="s">
-        <v>538</v>
+        <v>494</v>
       </c>
       <c r="C18" s="9">
-        <v>8</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>360</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F18" s="6">
         <f>VLOOKUP(A18,深渊配置!A:C,2,FALSE)</f>
@@ -32771,16 +32681,19 @@
         <v>4000016</v>
       </c>
       <c r="B19" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
       <c r="C19" s="9">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>362</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F19" s="6">
         <f>VLOOKUP(A19,深渊配置!A:C,2,FALSE)</f>
@@ -32853,16 +32766,19 @@
         <v>4000017</v>
       </c>
       <c r="B20" t="s">
-        <v>540</v>
+        <v>496</v>
       </c>
       <c r="C20" s="9">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>364</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F20" s="6">
         <f>VLOOKUP(A20,深渊配置!A:C,2,FALSE)</f>
@@ -32935,16 +32851,19 @@
         <v>4000018</v>
       </c>
       <c r="B21" t="s">
-        <v>541</v>
+        <v>497</v>
       </c>
       <c r="C21" s="9">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>366</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F21" s="6">
         <f>VLOOKUP(A21,深渊配置!A:C,2,FALSE)</f>
@@ -33017,16 +32936,19 @@
         <v>4000019</v>
       </c>
       <c r="B22" t="s">
-        <v>542</v>
+        <v>498</v>
       </c>
       <c r="C22" s="9">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>368</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F22" s="6">
         <f>VLOOKUP(A22,深渊配置!A:C,2,FALSE)</f>
@@ -33099,16 +33021,19 @@
         <v>4000020</v>
       </c>
       <c r="B23" t="s">
-        <v>543</v>
+        <v>499</v>
       </c>
       <c r="C23" s="9">
-        <v>13</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>370</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F23" s="6">
         <f>VLOOKUP(A23,深渊配置!A:C,2,FALSE)</f>
@@ -33181,16 +33106,19 @@
         <v>4000021</v>
       </c>
       <c r="B24" t="s">
-        <v>544</v>
+        <v>500</v>
       </c>
       <c r="C24" s="9">
-        <v>14</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>372</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F24" s="6">
         <f>VLOOKUP(A24,深渊配置!A:C,2,FALSE)</f>
@@ -33263,16 +33191,19 @@
         <v>4000022</v>
       </c>
       <c r="B25" t="s">
-        <v>545</v>
+        <v>501</v>
       </c>
       <c r="C25" s="9">
-        <v>15</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>374</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F25" s="6">
         <f>VLOOKUP(A25,深渊配置!A:C,2,FALSE)</f>
@@ -33345,16 +33276,19 @@
         <v>4000023</v>
       </c>
       <c r="B26" t="s">
-        <v>546</v>
+        <v>502</v>
       </c>
       <c r="C26" s="9">
-        <v>16</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>376</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E26" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F26" s="6">
         <f>VLOOKUP(A26,深渊配置!A:C,2,FALSE)</f>
@@ -33427,16 +33361,19 @@
         <v>4000024</v>
       </c>
       <c r="B27" t="s">
-        <v>547</v>
+        <v>503</v>
       </c>
       <c r="C27" s="9">
-        <v>17</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>378</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E27" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F27" s="6">
         <f>VLOOKUP(A27,深渊配置!A:C,2,FALSE)</f>
@@ -33509,16 +33446,19 @@
         <v>4000025</v>
       </c>
       <c r="B28" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="C28" s="9">
-        <v>18</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>380</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F28" s="6">
         <f>VLOOKUP(A28,深渊配置!A:C,2,FALSE)</f>
@@ -33591,16 +33531,19 @@
         <v>4000026</v>
       </c>
       <c r="B29" t="s">
-        <v>549</v>
+        <v>505</v>
       </c>
       <c r="C29" s="9">
-        <v>19</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>382</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E29" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F29" s="6">
         <f>VLOOKUP(A29,深渊配置!A:C,2,FALSE)</f>
@@ -33673,16 +33616,19 @@
         <v>4000027</v>
       </c>
       <c r="B30" t="s">
-        <v>550</v>
+        <v>506</v>
       </c>
       <c r="C30" s="9">
-        <v>20</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>384</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E30" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F30" s="6">
         <f>VLOOKUP(A30,深渊配置!A:C,2,FALSE)</f>
@@ -33755,16 +33701,19 @@
         <v>4000028</v>
       </c>
       <c r="B31" t="s">
-        <v>551</v>
+        <v>507</v>
       </c>
       <c r="C31" s="9">
-        <v>21</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>386</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F31" s="6">
         <f>VLOOKUP(A31,深渊配置!A:C,2,FALSE)</f>
@@ -33837,16 +33786,19 @@
         <v>4000029</v>
       </c>
       <c r="B32" t="s">
-        <v>552</v>
+        <v>508</v>
       </c>
       <c r="C32" s="9">
-        <v>22</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>388</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E32" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F32" s="6">
         <f>VLOOKUP(A32,深渊配置!A:C,2,FALSE)</f>
@@ -33919,16 +33871,19 @@
         <v>4000030</v>
       </c>
       <c r="B33" t="s">
-        <v>553</v>
+        <v>509</v>
       </c>
       <c r="C33" s="9">
-        <v>23</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>390</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>fstage05</v>
+      </c>
+      <c r="E33" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04.plist</v>
       </c>
       <c r="F33" s="6">
         <f>VLOOKUP(A33,深渊配置!A:C,2,FALSE)</f>
@@ -36125,7 +36080,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H33" s="9">
         <v>123</v>
@@ -36191,7 +36146,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="H34" s="9">
         <v>124</v>
@@ -36257,7 +36212,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="H35" s="9">
         <v>125</v>
@@ -36323,7 +36278,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="H36" s="9">
         <v>126</v>
@@ -36389,7 +36344,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H37" s="9">
         <v>127</v>
@@ -36455,7 +36410,7 @@
         <v>6</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H38" s="9">
         <v>128</v>
@@ -36521,7 +36476,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="H39" s="9">
         <v>129</v>
@@ -36587,7 +36542,7 @@
         <v>8</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="H40" s="9">
         <v>130</v>
@@ -36653,7 +36608,7 @@
         <v>9</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H41" s="9">
         <v>131</v>
@@ -36719,7 +36674,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H42" s="9">
         <v>132</v>
@@ -36785,7 +36740,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="H43" s="9">
         <v>133</v>
@@ -36851,7 +36806,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="H44" s="9">
         <v>134</v>
@@ -36917,7 +36872,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="H45" s="9">
         <v>135</v>
@@ -36983,7 +36938,7 @@
         <v>14</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H46" s="9">
         <v>136</v>
@@ -37049,7 +37004,7 @@
         <v>15</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H47" s="9">
         <v>137</v>
@@ -37115,7 +37070,7 @@
         <v>16</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="H48" s="9">
         <v>138</v>
@@ -37181,7 +37136,7 @@
         <v>17</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H49" s="9">
         <v>139</v>
@@ -37247,7 +37202,7 @@
         <v>18</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H50" s="9">
         <v>140</v>
@@ -37313,7 +37268,7 @@
         <v>19</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="H51" s="9">
         <v>141</v>
@@ -37379,7 +37334,7 @@
         <v>20</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="H52" s="9">
         <v>142</v>
@@ -37445,7 +37400,7 @@
         <v>21</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H53" s="9">
         <v>143</v>
@@ -37511,7 +37466,7 @@
         <v>22</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="H54" s="9">
         <v>144</v>
@@ -37577,7 +37532,7 @@
         <v>23</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="H55" s="9">
         <v>145</v>
@@ -37643,7 +37598,7 @@
         <v>24</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="H56" s="9">
         <v>146</v>
@@ -37709,7 +37664,7 @@
         <v>25</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H57" s="9">
         <v>147</v>
@@ -37775,7 +37730,7 @@
         <v>26</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="H58" s="9">
         <v>148</v>
@@ -37841,7 +37796,7 @@
         <v>27</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H59" s="9">
         <v>149</v>
@@ -37907,7 +37862,7 @@
         <v>28</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="H60" s="9">
         <v>150</v>
@@ -37973,7 +37928,7 @@
         <v>29</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H61" s="9">
         <v>151</v>
@@ -38039,7 +37994,7 @@
         <v>30</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H62" s="9">
         <v>152</v>
@@ -38105,7 +38060,7 @@
         <v>31</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="H63" s="9">
         <v>153</v>
@@ -38171,7 +38126,7 @@
         <v>32</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="H64" s="9">
         <v>154</v>
@@ -38237,7 +38192,7 @@
         <v>33</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="H65" s="9">
         <v>155</v>
@@ -38303,7 +38258,7 @@
         <v>34</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H66" s="9">
         <v>156</v>
@@ -38369,7 +38324,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="H67" s="9">
         <v>157</v>
@@ -38435,7 +38390,7 @@
         <v>36</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="H68" s="9">
         <v>158</v>
@@ -38501,7 +38456,7 @@
         <v>37</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="H69" s="9">
         <v>159</v>
@@ -38567,7 +38522,7 @@
         <v>38</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="H70" s="9">
         <v>160</v>
@@ -38633,7 +38588,7 @@
         <v>39</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="H71" s="9">
         <v>161</v>
@@ -38699,7 +38654,7 @@
         <v>40</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="H72" s="9">
         <v>162</v>
@@ -38765,7 +38720,7 @@
         <v>41</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="H73" s="9">
         <v>163</v>
@@ -38831,7 +38786,7 @@
         <v>42</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H74" s="9">
         <v>164</v>
@@ -38897,7 +38852,7 @@
         <v>43</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="H75" s="9">
         <v>165</v>
@@ -38963,7 +38918,7 @@
         <v>44</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="H76" s="9">
         <v>166</v>
@@ -39029,7 +38984,7 @@
         <v>45</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H77" s="9">
         <v>167</v>
@@ -39095,7 +39050,7 @@
         <v>46</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H78" s="9">
         <v>168</v>
@@ -39161,7 +39116,7 @@
         <v>47</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="H79" s="9">
         <v>169</v>
@@ -39227,7 +39182,7 @@
         <v>48</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H80" s="9">
         <v>170</v>
@@ -39293,7 +39248,7 @@
         <v>49</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H81" s="9">
         <v>171</v>
@@ -39359,7 +39314,7 @@
         <v>50</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="H82" s="9">
         <v>172</v>
@@ -39425,7 +39380,7 @@
         <v>51</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="H83" s="9">
         <v>173</v>
@@ -39491,7 +39446,7 @@
         <v>52</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H84" s="9">
         <v>174</v>
@@ -39557,7 +39512,7 @@
         <v>53</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="H85" s="9">
         <v>175</v>
@@ -39623,7 +39578,7 @@
         <v>54</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="H86" s="9">
         <v>176</v>
@@ -39689,7 +39644,7 @@
         <v>55</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="H87" s="9">
         <v>177</v>
@@ -39755,7 +39710,7 @@
         <v>56</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="H88" s="9">
         <v>178</v>
@@ -39821,7 +39776,7 @@
         <v>57</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="H89" s="9">
         <v>179</v>
@@ -39887,7 +39842,7 @@
         <v>58</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="H90" s="9">
         <v>180</v>
@@ -39953,7 +39908,7 @@
         <v>59</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="H91" s="9">
         <v>181</v>
@@ -40019,7 +39974,7 @@
         <v>60</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="H92" s="9">
         <v>182</v>
@@ -40085,7 +40040,7 @@
         <v>61</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="H93" s="9">
         <v>183</v>
@@ -40151,7 +40106,7 @@
         <v>62</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="H94" s="9">
         <v>184</v>
@@ -40217,7 +40172,7 @@
         <v>63</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="H95" s="9">
         <v>185</v>
@@ -40283,7 +40238,7 @@
         <v>64</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="H96" s="9">
         <v>186</v>
@@ -40349,7 +40304,7 @@
         <v>65</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="H97" s="9">
         <v>187</v>
@@ -40415,7 +40370,7 @@
         <v>66</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="H98" s="9">
         <v>188</v>
@@ -40481,7 +40436,7 @@
         <v>67</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="H99" s="9">
         <v>189</v>
@@ -40547,7 +40502,7 @@
         <v>68</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="H100" s="9">
         <v>190</v>
@@ -40613,7 +40568,7 @@
         <v>69</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H101" s="9">
         <v>191</v>
@@ -40679,7 +40634,7 @@
         <v>70</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="H102" s="9">
         <v>192</v>
@@ -40745,7 +40700,7 @@
         <v>71</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="H103" s="9">
         <v>193</v>
@@ -40811,7 +40766,7 @@
         <v>72</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H104" s="9">
         <v>194</v>
@@ -40877,7 +40832,7 @@
         <v>73</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="H105" s="9">
         <v>195</v>
@@ -40943,7 +40898,7 @@
         <v>74</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="H106" s="9">
         <v>196</v>
@@ -41009,7 +40964,7 @@
         <v>75</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="H107" s="9">
         <v>197</v>
@@ -41075,7 +41030,7 @@
         <v>76</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="H108" s="9">
         <v>198</v>
@@ -41141,7 +41096,7 @@
         <v>77</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="H109" s="9">
         <v>199</v>
@@ -41207,7 +41162,7 @@
         <v>78</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="H110" s="9">
         <v>200</v>
@@ -41273,7 +41228,7 @@
         <v>79</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="H111" s="9">
         <v>201</v>
@@ -41339,7 +41294,7 @@
         <v>80</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="H112" s="9">
         <v>202</v>
@@ -41405,7 +41360,7 @@
         <v>81</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H113" s="9">
         <v>203</v>
@@ -41471,7 +41426,7 @@
         <v>82</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="H114" s="9">
         <v>204</v>
@@ -41537,7 +41492,7 @@
         <v>83</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="H115" s="9">
         <v>205</v>
@@ -41603,7 +41558,7 @@
         <v>84</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="H116" s="9">
         <v>206</v>
@@ -41669,7 +41624,7 @@
         <v>85</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H117" s="9">
         <v>207</v>
@@ -41735,7 +41690,7 @@
         <v>86</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="H118" s="9">
         <v>208</v>
@@ -41801,7 +41756,7 @@
         <v>87</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="H119" s="9">
         <v>209</v>
@@ -41867,7 +41822,7 @@
         <v>88</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="H120" s="9">
         <v>210</v>
@@ -41933,7 +41888,7 @@
         <v>89</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H121" s="9">
         <v>211</v>
@@ -41999,7 +41954,7 @@
         <v>90</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H122" s="9">
         <v>212</v>
@@ -42065,7 +42020,7 @@
         <v>91</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H123" s="9">
         <v>213</v>
@@ -42131,7 +42086,7 @@
         <v>92</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="H124" s="9">
         <v>214</v>
@@ -42197,7 +42152,7 @@
         <v>93</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H125" s="9">
         <v>215</v>
@@ -42263,7 +42218,7 @@
         <v>94</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="H126" s="9">
         <v>216</v>
@@ -42329,7 +42284,7 @@
         <v>95</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H127" s="9">
         <v>217</v>
@@ -42395,7 +42350,7 @@
         <v>96</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H128" s="9">
         <v>218</v>
@@ -42461,7 +42416,7 @@
         <v>97</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H129" s="9">
         <v>219</v>
@@ -42527,7 +42482,7 @@
         <v>98</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H130" s="9">
         <v>220</v>
@@ -42593,7 +42548,7 @@
         <v>99</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H131" s="9">
         <v>221</v>
@@ -42659,7 +42614,7 @@
         <v>100</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="H132" s="9">
         <v>222</v>
@@ -42725,7 +42680,7 @@
         <v>101</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="H133" s="9">
         <v>223</v>
@@ -42791,7 +42746,7 @@
         <v>102</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="H134" s="9">
         <v>224</v>
@@ -42857,7 +42812,7 @@
         <v>103</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="H135" s="9">
         <v>225</v>
@@ -42923,7 +42878,7 @@
         <v>104</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="H136" s="9">
         <v>226</v>
@@ -42989,7 +42944,7 @@
         <v>105</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="H137" s="9">
         <v>227</v>
@@ -43055,7 +43010,7 @@
         <v>106</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="H138" s="9">
         <v>228</v>
@@ -43121,7 +43076,7 @@
         <v>107</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="H139" s="9">
         <v>229</v>
@@ -43187,7 +43142,7 @@
         <v>108</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="H140" s="9">
         <v>230</v>
@@ -43253,7 +43208,7 @@
         <v>109</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="H141" s="9">
         <v>231</v>
@@ -43319,7 +43274,7 @@
         <v>110</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="H142" s="9">
         <v>232</v>
@@ -43385,7 +43340,7 @@
         <v>111</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="H143" s="9">
         <v>233</v>
@@ -43451,7 +43406,7 @@
         <v>112</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="H144" s="9">
         <v>234</v>
@@ -43517,7 +43472,7 @@
         <v>113</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="H145" s="9">
         <v>235</v>
@@ -43583,7 +43538,7 @@
         <v>112</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="H146" s="9">
         <v>234</v>
@@ -43649,7 +43604,7 @@
         <v>113</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="H147" s="9">
         <v>235</v>
@@ -43715,7 +43670,7 @@
         <v>112</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="H148" s="9">
         <v>234</v>
@@ -43781,7 +43736,7 @@
         <v>113</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="H149" s="9">
         <v>235</v>
@@ -43847,7 +43802,7 @@
         <v>112</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="H150" s="9">
         <v>234</v>
@@ -43913,7 +43868,7 @@
         <v>113</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="H151" s="9">
         <v>235</v>
@@ -43979,7 +43934,7 @@
         <v>112</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="H152" s="9">
         <v>234</v>
@@ -44045,7 +44000,7 @@
         <v>113</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="H153" s="9">
         <v>235</v>
@@ -44111,7 +44066,7 @@
         <v>112</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="H154" s="9">
         <v>234</v>
@@ -76582,10 +76537,10 @@
         <v>10</v>
       </c>
       <c r="Y4" s="17" t="s">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="Z4" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.15">
@@ -76621,10 +76576,10 @@
         <v>10</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="Z5" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.15">
@@ -76660,10 +76615,10 @@
         <v>10</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="Z6" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.15">
@@ -76699,10 +76654,10 @@
         <v>10</v>
       </c>
       <c r="Y7" s="17" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="Z7" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.15">
@@ -76738,10 +76693,10 @@
         <v>10</v>
       </c>
       <c r="Y8" s="17" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="Z8" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.15">
@@ -76771,10 +76726,10 @@
         <v>10</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="Z9" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.15">
@@ -76804,10 +76759,10 @@
         <v>10</v>
       </c>
       <c r="Y10" s="17" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
       <c r="Z10" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.15">
@@ -76837,10 +76792,10 @@
         <v>10</v>
       </c>
       <c r="Y11" s="17" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="Z11" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
@@ -76870,10 +76825,10 @@
         <v>10</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="Z12" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
@@ -76903,7 +76858,7 @@
         <v>11</v>
       </c>
       <c r="Y13" s="17" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
@@ -76933,7 +76888,7 @@
         <v>12</v>
       </c>
       <c r="Y14" s="17" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.15">
@@ -76963,7 +76918,7 @@
         <v>13</v>
       </c>
       <c r="Y15" s="17" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
@@ -76993,7 +76948,7 @@
         <v>14</v>
       </c>
       <c r="Y16" s="17" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
@@ -77023,7 +76978,7 @@
         <v>15</v>
       </c>
       <c r="Y17" s="17" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.15">
@@ -77053,7 +77008,7 @@
         <v>16</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
@@ -77083,7 +77038,7 @@
         <v>17</v>
       </c>
       <c r="Y19" s="17" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
@@ -77113,7 +77068,7 @@
         <v>18</v>
       </c>
       <c r="Y20" s="17" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
@@ -77137,7 +77092,7 @@
         <v>19</v>
       </c>
       <c r="Y21" s="17" t="s">
-        <v>431</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.15">
@@ -77161,7 +77116,7 @@
         <v>20</v>
       </c>
       <c r="Y22" s="17" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.15">
@@ -77185,7 +77140,7 @@
         <v>21</v>
       </c>
       <c r="Y23" s="17" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
@@ -77209,7 +77164,7 @@
         <v>22</v>
       </c>
       <c r="Y24" s="17" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.15">
@@ -77233,7 +77188,7 @@
         <v>23</v>
       </c>
       <c r="Y25" s="17" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.15">
@@ -77257,7 +77212,7 @@
         <v>24</v>
       </c>
       <c r="Y26" s="17" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.15">
@@ -77281,7 +77236,7 @@
         <v>25</v>
       </c>
       <c r="Y27" s="17" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.15">
@@ -77305,7 +77260,7 @@
         <v>26</v>
       </c>
       <c r="Y28" s="17" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.15">
@@ -77329,7 +77284,7 @@
         <v>27</v>
       </c>
       <c r="Y29" s="17" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.15">
@@ -77353,7 +77308,7 @@
         <v>28</v>
       </c>
       <c r="Y30" s="17" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.15">
@@ -77377,7 +77332,7 @@
         <v>29</v>
       </c>
       <c r="Y31" s="17" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.15">
@@ -77506,10 +77461,10 @@
         <v>35</v>
       </c>
       <c r="Y37" s="19" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>508</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.15">
@@ -77533,7 +77488,7 @@
         <v>36</v>
       </c>
       <c r="Y38" s="19" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="Z38" s="1"/>
     </row>
@@ -77558,10 +77513,10 @@
         <v>37</v>
       </c>
       <c r="Y39" s="19" t="s">
-        <v>498</v>
+        <v>454</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>509</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.15">
@@ -77585,7 +77540,7 @@
         <v>38</v>
       </c>
       <c r="Y40" s="19" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="Z40" s="1"/>
     </row>
@@ -77610,7 +77565,7 @@
         <v>39</v>
       </c>
       <c r="Y41" s="19" t="s">
-        <v>500</v>
+        <v>456</v>
       </c>
       <c r="Z41" s="1"/>
     </row>
@@ -77635,10 +77590,10 @@
         <v>40</v>
       </c>
       <c r="Y42" s="19" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>510</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.15">
@@ -77662,10 +77617,10 @@
         <v>41</v>
       </c>
       <c r="Y43" s="19" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.15">
@@ -77689,10 +77644,10 @@
         <v>42</v>
       </c>
       <c r="Y44" s="20" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.15">
@@ -77716,10 +77671,10 @@
         <v>43</v>
       </c>
       <c r="Y45" s="20" t="s">
-        <v>502</v>
+        <v>458</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.15">
@@ -77743,10 +77698,10 @@
         <v>44</v>
       </c>
       <c r="Y46" s="20" t="s">
-        <v>468</v>
+        <v>424</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.15">
@@ -77770,10 +77725,10 @@
         <v>45</v>
       </c>
       <c r="Y47" s="20" t="s">
-        <v>503</v>
+        <v>459</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.15">
@@ -77797,10 +77752,10 @@
         <v>46</v>
       </c>
       <c r="Y48" s="20" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.15">
@@ -77824,10 +77779,10 @@
         <v>47</v>
       </c>
       <c r="Y49" s="19" t="s">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.15">
@@ -77851,10 +77806,10 @@
         <v>48</v>
       </c>
       <c r="Y50" s="20" t="s">
-        <v>504</v>
+        <v>460</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.15">
@@ -77878,10 +77833,10 @@
         <v>49</v>
       </c>
       <c r="Y51" s="20" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.15">
@@ -77905,10 +77860,10 @@
         <v>50</v>
       </c>
       <c r="Y52" s="19" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.15">
@@ -77932,10 +77887,10 @@
         <v>51</v>
       </c>
       <c r="Y53" s="19" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.15">
@@ -77959,10 +77914,10 @@
         <v>52</v>
       </c>
       <c r="Y54" s="20" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.15">
@@ -77986,10 +77941,10 @@
         <v>53</v>
       </c>
       <c r="Y55" s="19" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.15">
@@ -78013,10 +77968,10 @@
         <v>54</v>
       </c>
       <c r="Y56" s="19" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.15">
@@ -78040,10 +77995,10 @@
         <v>55</v>
       </c>
       <c r="Y57" s="19" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.15">
@@ -78067,10 +78022,10 @@
         <v>56</v>
       </c>
       <c r="Y58" s="19" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.15">
@@ -78094,10 +78049,10 @@
         <v>57</v>
       </c>
       <c r="Y59" s="21" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.15">
@@ -78121,10 +78076,10 @@
         <v>58</v>
       </c>
       <c r="Y60" s="21" t="s">
-        <v>507</v>
+        <v>463</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.15">
@@ -78148,10 +78103,10 @@
         <v>59</v>
       </c>
       <c r="Y61" s="19" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>462</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.15">
@@ -78175,10 +78130,10 @@
         <v>60</v>
       </c>
       <c r="Y62" s="19" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.15">
@@ -78202,10 +78157,10 @@
         <v>61</v>
       </c>
       <c r="Y63" s="19" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="2:26" x14ac:dyDescent="0.15">
@@ -78229,10 +78184,10 @@
         <v>62</v>
       </c>
       <c r="Y64" s="19" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>465</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="2:26" x14ac:dyDescent="0.15">
@@ -78256,10 +78211,10 @@
         <v>63</v>
       </c>
       <c r="Y65" s="19" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="2:26" x14ac:dyDescent="0.15">
@@ -78283,10 +78238,10 @@
         <v>64</v>
       </c>
       <c r="Y66" s="19" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="2:26" x14ac:dyDescent="0.15">
@@ -78310,10 +78265,10 @@
         <v>65</v>
       </c>
       <c r="Y67" s="19" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="2:26" x14ac:dyDescent="0.15">
@@ -78337,10 +78292,10 @@
         <v>66</v>
       </c>
       <c r="Y68" s="19" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="2:26" x14ac:dyDescent="0.15">
@@ -78364,10 +78319,10 @@
         <v>67</v>
       </c>
       <c r="Y69" s="19" t="s">
-        <v>495</v>
+        <v>451</v>
       </c>
       <c r="Z69" s="1" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="2:26" x14ac:dyDescent="0.15">
